--- a/output/CodeSystem-substance-use-frequency-cs.xlsx
+++ b/output/CodeSystem-substance-use-frequency-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-substance-use-frequency-cs.xlsx
+++ b/output/CodeSystem-substance-use-frequency-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-substance-use-frequency-cs.xlsx
+++ b/output/CodeSystem-substance-use-frequency-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
